--- a/asli1_datatraining_31.xlsx
+++ b/asli1_datatraining_31.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S2 ITB\semester 4 (semester genap 2022-2023)\Tesis\WORK\implementasi\simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1435FB-164C-4B6C-BF81-B5FBCCBDC776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA1D63E-6AF7-40C1-8469-D2BC875C1F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{696812D2-B655-4068-AFEA-7FC23A1CEAFA}"/>
   </bookViews>
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D0C97E-85E8-4A56-9638-45FDEDEBE251}">
   <dimension ref="A1:C3000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,7 +625,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="B28">
         <v>0.219031</v>

--- a/asli1_datatraining_31.xlsx
+++ b/asli1_datatraining_31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S2 ITB\semester 4 (semester genap 2022-2023)\Tesis\WORK\implementasi\simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2756872-73B8-45CC-AD88-7B7939528F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2A839C-848A-4C8B-8A82-F2A0F0EAE9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{696812D2-B655-4068-AFEA-7FC23A1CEAFA}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D0C97E-85E8-4A56-9638-45FDEDEBE251}">
-  <dimension ref="A1:C3002"/>
+  <dimension ref="A1:C3001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3002"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24415,11 +24415,6 @@
         <v>0.46598600000000001</v>
       </c>
     </row>
-    <row r="3002" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3002">
-        <v>0.46348</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/asli1_datatraining_31.xlsx
+++ b/asli1_datatraining_31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S2 ITB\semester 4 (semester genap 2022-2023)\Tesis\WORK\implementasi\simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2A839C-848A-4C8B-8A82-F2A0F0EAE9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471ED88D-5073-4EA3-84D9-C75B615F0A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{696812D2-B655-4068-AFEA-7FC23A1CEAFA}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>ys</t>
   </si>
   <si>
-    <t>ket: sekarang time sampling = 1 sekon dengan rescale dalam rentang 0-1 masing-masing</t>
+    <t>ket: sekarang time sampling = 1 sekon dengan normalisasi dalam rentang 0-1 masing-masing</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:C3001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
